--- a/Anotações.xlsx
+++ b/Anotações.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aprendendo_com_Leo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\meuprimeiroprograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -398,7 +398,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.90625" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
